--- a/DOM_Banner/output/dept_banner/Justin Hayes_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Justin Hayes_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,349 +360,164 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Princy John, Sona Shahbazian, William Lainhart, Justin F Hayes, Brian Mochon, David E. Nix</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4383739282</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Risk for primary cephalosporin resistance in Gram-negative bacteremia</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5070656502", "https://openalex.org/A5014837618", "https://openalex.org/A5009556355", "https://openalex.org/A5033407848", "https://openalex.org/A5092436566", "https://openalex.org/A5029547047"), au_display_name = c("Princy John", "Sona Shahbazian", "William Lainhart", "Justin F Hayes", "Brian Mochon", "David E. Nix"), au_orcid = c(NA, "https://orcid.org/0000-0003-1688-5010", "https://orcid.org/0000-0002-9372-6737", "https://orcid.org/0000-0003-4360-961X", "https://orcid.org/0000-0003-4765-4311", 
-"https://orcid.org/0000-0002-9440-465X"), author_position = c("first", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Banner Health", "College of Medicine, University of Arizona, Tucson, Arizona", "Department of Pathology &amp; Laboratory Medicine, University of Arizona, Tucson, Arizona", "College of Medicine, University of Arizona, Tucson, Arizona", "Department of Pathology &amp; Laboratory Medicine, University of Arizona, Tucson, Arizona", "College of Medicine, University of Arizona, Tucson, Arizona; Department of Pharmacy Practice &amp; Science, University of Arizona, Tucson, Arizona"
-), institution_id = c("https://openalex.org/I2802412784", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243"), institution_display_name = c("Banner Health", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona"), institution_ror = c("https://ror.org/039wwwz66", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", 
-"https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", "US", "US", "US", "US"), institution_type = c("healthcare", "education", "education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I2802412784", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-"https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Abstract Objective: This study aimed to examine the clinical risk factors for cephalosporin resistance in patients with Gram-negative bacteremia caused by Escherichia coli (EC), Klebsiella pneumoniae (KP), Enterobacter cloacae (ENC), and Pseudomonas aeruginosa (PS). Methods: This retrospective cohort study included 400 adults with Gram-negative bacteremia. The goal was to review 100 cases involving each species and approximately half resistant and half susceptible to first-line cephalosporins, ceftriaxone (EC or KP), or cefepime (ENC or PS). Logistic regression was used to identify factors predictive of resistance. Results: A total of 378 cases of Gram-negative bacteremia were included in the analysis. Multivariate analysis identified significant risk factors for resistance, including admission from a chronic care hospital, skilled nursing facility, or having a history of infection within the prior 6 months (OR 3.00, P &amp;lt; .0001), requirement for mechanical ventilation (OR 3.76, P &amp;lt; .0001), presence of hemiplegia (OR 3.54, P = .0304), and presence of a connective tissue disease (OR 3.77, P = .0291). Conclusions: Patients without the identified risk factors should be strongly considered for receiving ceftriaxone or cefepime rather than carbapenems and newer broad-spectrum agents.</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>Antimicrobial Stewardship &amp; Healthcare Epidemiology</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Antimicrobial Stewardship &amp; Healthcare Epidemiology</t>
+          <t>Cambridge University Press</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4210182445</t>
+          <t>https://doi.org/10.1017/ash.2023.202</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cambridge University Press</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2732-494X</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37502246</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1017/ash.2023.202</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://www.cambridge.org/core/services/aop-cambridge-core/content/view/1B7FB3F8473DDFADA8959152EC8ADC51/S2732494X23002024a.pdf/div-class-title-risk-for-primary-cephalosporin-resistance-in-gram-negative-bacteremia-div.pdf</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>cc-by-nc-nd</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://www.cambridge.org/core/services/aop-cambridge-core/content/view/1B7FB3F8473DDFADA8959152EC8ADC51/S2732494X23002024a.pdf/div-class-title-risk-for-primary-cephalosporin-resistance-in-gram-negative-bacteremia-div.pdf</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4383739282</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4383739282", doi = "https://doi.org/10.1017/ash.2023.202", pmid = "https://pubmed.ncbi.nlm.nih.gov/37502246")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1017/ash.2023.202</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2000445173", "https://openalex.org/W2093274439", "https://openalex.org/W2140157635", "https://openalex.org/W2213242091", "https://openalex.org/W2316432107", "https://openalex.org/W2333022442", "https://openalex.org/W2594800176", "https://openalex.org/W2652869046", "https://openalex.org/W2901423652", "https://openalex.org/W2911792773", "https://openalex.org/W2937008081", "https://openalex.org/W2944434778", "https://openalex.org/W2947015839", "https://openalex.org/W2987187240", 
-"https://openalex.org/W3082433113", "https://openalex.org/W4206677002", "https://openalex.org/W4280628134", "https://openalex.org/W4283400350", "https://openalex.org/W4294725401", "https://openalex.org/W4302284156")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4241734223", "https://openalex.org/W2063630512", "https://openalex.org/W2137572220", "https://openalex.org/W1998499425", "https://openalex.org/W4250134777", "https://openalex.org/W1504854732", "https://openalex.org/W2157485739", "https://openalex.org/W2078011164", "https://openalex.org/W1538417925", "https://openalex.org/W2741291630")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Justin Hayes_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Justin Hayes_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Banner Health; College of Medicine, University of Arizona, Tucson, Arizona; Department of Pathology &amp; Laboratory Medicine, University of Arizona, Tucson, Arizona; College of Medicine, University of Arizona, Tucson, Arizona; Department of Pathology &amp; Laboratory Medicine, University of Arizona, Tucson, Arizona; College of Medicine, University of Arizona, Tucson, Arizona; Department of Pharmacy Practice &amp; Science, University of Arizona, Tucson, Arizona</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4383739282</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Risk for primary cephalosporin resistance in Gram-negative bacteremia</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Antimicrobial Stewardship &amp; Healthcare Epidemiology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Cambridge University Press</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1017/ash.2023.202</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37502246</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1017/ash.2023.202</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
